--- a/Parsing_characteristis_and_photo/parsing_3dplitka/несовпадение фабрик у нас и 3dplitka.xlsx
+++ b/Parsing_characteristis_and_photo/parsing_3dplitka/несовпадение фабрик у нас и 3dplitka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\parsing_3dplitka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172BA8DF-1D5E-44EC-BEB8-E0864DE2C3A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D7115D-6FF1-4C5C-A8F4-C6C387E91BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>несовпадение фабрик у нас и 3dplitka</t>
   </si>
@@ -45,7 +45,13 @@
     <t>RHS Ceramiche (Rondine group)</t>
   </si>
   <si>
-    <t>Производитель НАШ</t>
+    <t>Stn Ceramica</t>
+  </si>
+  <si>
+    <t>Stylnul (STN Ceramica)</t>
+  </si>
+  <si>
+    <t>Название Фабрики у нас</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B31"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,8 +546,12 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>

--- a/Parsing_characteristis_and_photo/parsing_3dplitka/несовпадение фабрик у нас и 3dplitka.xlsx
+++ b/Parsing_characteristis_and_photo/parsing_3dplitka/несовпадение фабрик у нас и 3dplitka.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\parsing_3dplitka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\parsing_3dplitka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D7115D-6FF1-4C5C-A8F4-C6C387E91BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62863EC0-A719-437D-9BB1-4C73BEA3128F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>несовпадение фабрик у нас и 3dplitka</t>
   </si>
@@ -52,6 +52,24 @@
   </si>
   <si>
     <t>Название Фабрики у нас</t>
+  </si>
+  <si>
+    <t>Ape ceramica</t>
+  </si>
+  <si>
+    <t>Ape ceramicas</t>
+  </si>
+  <si>
+    <t>GayaFores</t>
+  </si>
+  <si>
+    <t>Gaya Fores</t>
+  </si>
+  <si>
+    <t>Pamesa</t>
+  </si>
+  <si>
+    <t>Pamesa Ceramica</t>
   </si>
 </sst>
 </file>
@@ -503,21 +521,21 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.265625" customWidth="1"/>
+    <col min="2" max="2" width="51.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="21.4" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -525,11 +543,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -537,7 +555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -545,7 +563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -553,103 +571,115 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="8"/>
     </row>
